--- a/data/DataBase/Nhap_Hang.xlsx
+++ b/data/DataBase/Nhap_Hang.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2" s="7">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>17</v>
@@ -635,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="10">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F3" s="7">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>17</v>
@@ -661,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="10">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>17</v>
@@ -687,10 +687,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="10">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7">
-        <v>400</v>
+        <v>13000</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>17</v>
@@ -713,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="10">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F6" s="7">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>17</v>

--- a/data/DataBase/Nhap_Hang.xlsx
+++ b/data/DataBase/Nhap_Hang.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8520" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Dụng cụ học sinh" sheetId="6" r:id="rId1"/>
+    <sheet name="d" sheetId="6" r:id="rId1"/>
     <sheet name="Văn phòng phẩm" sheetId="2" r:id="rId2"/>
     <sheet name="Thiết bị trường học" sheetId="3" r:id="rId3"/>
     <sheet name="Sách giáo khoa" sheetId="4" r:id="rId4"/>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
